--- a/Flight_datasheet_cmdelta_cmalpha_clcd.xlsx
+++ b/Flight_datasheet_cmdelta_cmalpha_clcd.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel Angel Saez\Desktop\Course 2018-2019\Q3\Flight Dynamics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emili\Documents\TU DELFT\Year 3\Q3\SVV\FLight dynamics report\SVV_FD_B23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A101B9-2CA9-45EE-B8CA-341D7AF9963D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A52CA20-2E95-41D3-9CAD-3E828B9034E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5064" yWindow="348" windowWidth="11460" windowHeight="10968" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AE$92</definedName>
@@ -23,7 +24,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="142">
   <si>
     <t>Post-Flight Data Sheet AE3202</t>
   </si>
@@ -445,6 +445,21 @@
   </si>
   <si>
     <t>dynamic pressure</t>
+  </si>
+  <si>
+    <t>Aperiodic Roll</t>
+  </si>
+  <si>
+    <t>Short Period</t>
+  </si>
+  <si>
+    <t>Phugoid Motion</t>
+  </si>
+  <si>
+    <t>Spiral Motion</t>
+  </si>
+  <si>
+    <t>C_D_0</t>
   </si>
 </sst>
 </file>
@@ -454,7 +469,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -471,6 +486,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -521,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
@@ -552,6 +574,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -767,7 +793,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -860,22 +886,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.26913549026096628</c:v>
+                  <c:v>0.26911969038509898</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32829302095681995</c:v>
+                  <c:v>0.32810072174714611</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40563590576843367</c:v>
+                  <c:v>0.40549205910467551</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.62347054503825439</c:v>
+                  <c:v>0.62316419948477497</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.80433205608255398</c:v>
+                  <c:v>0.80355140271382219</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0898478774972244</c:v>
+                  <c:v>1.0925141330046546</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -887,22 +913,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.2196433943669903E-2</c:v>
+                  <c:v>3.2762078241617434E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2202401645033921E-2</c:v>
+                  <c:v>3.6990233943707207E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2541088308543749E-2</c:v>
+                  <c:v>3.5113974383638814E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.949461059405663E-2</c:v>
+                  <c:v>4.2510526374548371E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2098300086927597E-2</c:v>
+                  <c:v>5.8027951123085258E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.183553688976615E-2</c:v>
+                  <c:v>6.7858536045662471E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1000,7 +1026,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="20133356"/>
@@ -1082,7 +1108,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="54186892"/>
@@ -1122,7 +1148,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -1242,22 +1268,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.26913549026096628</c:v>
+                  <c:v>0.26911969038509898</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32829302095681995</c:v>
+                  <c:v>0.32810072174714611</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40563590576843367</c:v>
+                  <c:v>0.40549205910467551</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.62347054503825439</c:v>
+                  <c:v>0.62316419948477497</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.80433205608255398</c:v>
+                  <c:v>0.80355140271382219</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0898478774972244</c:v>
+                  <c:v>1.0925141330046546</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1355,7 +1381,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="7171523"/>
@@ -1437,7 +1463,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="74385396"/>
@@ -1477,7 +1503,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -1590,22 +1616,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.2196433943669903E-2</c:v>
+                  <c:v>3.2762078241617434E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2202401645033921E-2</c:v>
+                  <c:v>3.6990233943707207E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2541088308543749E-2</c:v>
+                  <c:v>3.5113974383638814E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.949461059405663E-2</c:v>
+                  <c:v>4.2510526374548371E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2098300086927597E-2</c:v>
+                  <c:v>5.8027951123085258E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.183553688976615E-2</c:v>
+                  <c:v>6.7858536045662471E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1683,7 +1709,7 @@
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="80103906"/>
@@ -1754,7 +1780,7 @@
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="5510509"/>
@@ -1788,7 +1814,7 @@
               <a:latin typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1815,7 +1841,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2031,7 +2057,7 @@
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="80103906"/>
@@ -2111,7 +2137,7 @@
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="5510509"/>
@@ -2150,7 +2176,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2367,7 +2393,7 @@
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="80103906"/>
@@ -2447,7 +2473,7 @@
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="5510509"/>
@@ -2486,7 +2512,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2702,7 +2728,7 @@
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="80103906"/>
@@ -2782,7 +2808,7 @@
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="5510509"/>
@@ -2821,7 +2847,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3045,7 +3071,7 @@
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="80103906"/>
@@ -3125,7 +3151,7 @@
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="5510509"/>
@@ -3427,7 +3453,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3725,11 +3751,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W88"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="U20" zoomScale="52" zoomScaleNormal="100" zoomScaleSheetLayoutView="52" workbookViewId="0">
-      <selection activeCell="AC51" sqref="AC51"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S68" sqref="S68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="8.77734375" customWidth="1"/>
     <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
@@ -4536,38 +4562,38 @@
         <v>62876.821594075991</v>
       </c>
       <c r="O28">
-        <f t="shared" ref="O28:O33" si="8">R28+S28</f>
-        <v>7499.77</v>
+        <f>R28+S28</f>
+        <v>7631.5300000000007</v>
       </c>
       <c r="P28">
-        <f t="shared" ref="P28:P33" si="9">O28*COS(RADIANS(F28))</f>
-        <v>7496.8459524761984</v>
+        <f t="shared" ref="P28:P33" si="8">O28*COS(RADIANS(F28))</f>
+        <v>7628.554581233916</v>
       </c>
       <c r="Q28">
-        <f t="shared" ref="Q28:Q33" si="10">N28-O28*SIN(RADIANS(F28))</f>
-        <v>62667.415725626131</v>
+        <f>N28-O28*SIN(RADIANS(F28))</f>
+        <v>62663.736770507916</v>
       </c>
       <c r="R28">
-        <v>3697.8</v>
+        <v>3652.61</v>
       </c>
       <c r="S28">
-        <v>3801.97</v>
+        <v>3978.92</v>
       </c>
       <c r="T28">
-        <f t="shared" ref="T28:T33" si="11">1.225*(((288.15-0.0065*(D28*0.3048))/288.15)^(-9.80665/(-0.0065*287.05)-1))</f>
+        <f>1.225*(((288.15-0.0065*(D28*0.3048))/288.15)^(-9.80665/(-0.0065*287.05)-1))</f>
         <v>0.84859186310327495</v>
       </c>
       <c r="U28">
-        <f t="shared" ref="U28:U33" si="12">E28*0.5144444444</f>
+        <f>E28*0.5144444444</f>
         <v>123.466666656</v>
       </c>
       <c r="V28">
-        <f t="shared" ref="V28:V33" si="13">Q28/(0.5*T28*U28^2*$B$20)</f>
-        <v>0.26913549026096628</v>
+        <f>Q28/(0.5*T28*U28^2*$B$20)</f>
+        <v>0.26911969038509898</v>
       </c>
       <c r="W28">
-        <f t="shared" ref="W28:W33" si="14">P28/(0.5*T28*U28^2*$B$20)</f>
-        <v>3.2196433943669903E-2</v>
+        <f t="shared" ref="W28:W33" si="9">P28/(0.5*T28*U28^2*$B$20)</f>
+        <v>3.2762078241617434E-2</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
@@ -4604,7 +4630,7 @@
         <v>306.62819200000001</v>
       </c>
       <c r="L29">
-        <f t="shared" ref="L29:L33" si="15">$H$20-K29</f>
+        <f t="shared" ref="L29:L33" si="10">$H$20-K29</f>
         <v>6397.5900879999999</v>
       </c>
       <c r="N29">
@@ -4612,38 +4638,38 @@
         <v>62738.926836485196</v>
       </c>
       <c r="O29">
+        <f t="shared" ref="O28:O33" si="11">R29+S29</f>
+        <v>7047.01</v>
+      </c>
+      <c r="P29">
         <f t="shared" si="8"/>
-        <v>6134.88</v>
-      </c>
-      <c r="P29">
+        <v>7041.332894315452</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" ref="Q28:Q33" si="12">N29-O29*SIN(RADIANS(F29))</f>
+        <v>62456.117693190325</v>
+      </c>
+      <c r="R29">
+        <v>3068.09</v>
+      </c>
+      <c r="S29">
+        <v>3978.92</v>
+      </c>
+      <c r="T29">
+        <f t="shared" ref="T28:T33" si="13">1.225*(((288.15-0.0065*(D29*0.3048))/288.15)^(-9.80665/(-0.0065*287.05)-1))</f>
+        <v>0.84859186310327495</v>
+      </c>
+      <c r="U29">
+        <f t="shared" ref="U28:U33" si="14">E29*0.5144444444</f>
+        <v>111.6344444348</v>
+      </c>
+      <c r="V29">
+        <f t="shared" ref="V28:V33" si="15">Q29/(0.5*T29*U29^2*$B$20)</f>
+        <v>0.32810072174714611</v>
+      </c>
+      <c r="W29">
         <f t="shared" si="9"/>
-        <v>6129.9377106997126</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="10"/>
-        <v>62492.723105113044</v>
-      </c>
-      <c r="R29">
-        <v>3036.32</v>
-      </c>
-      <c r="S29">
-        <v>3098.56</v>
-      </c>
-      <c r="T29">
-        <f t="shared" si="11"/>
-        <v>0.84859186310327495</v>
-      </c>
-      <c r="U29">
-        <f t="shared" si="12"/>
-        <v>111.6344444348</v>
-      </c>
-      <c r="V29">
-        <f t="shared" si="13"/>
-        <v>0.32829302095681995</v>
-      </c>
-      <c r="W29">
-        <f t="shared" si="14"/>
-        <v>3.2202401645033921E-2</v>
+        <v>3.6990233943707207E-2</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
@@ -4680,7 +4706,7 @@
         <v>317.51440000000002</v>
       </c>
       <c r="L30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>6386.70388</v>
       </c>
       <c r="N30">
@@ -4688,38 +4714,38 @@
         <v>62632.169604801995</v>
       </c>
       <c r="O30">
+        <f t="shared" si="11"/>
+        <v>5405.99</v>
+      </c>
+      <c r="P30">
         <f t="shared" si="8"/>
-        <v>5009.88</v>
-      </c>
-      <c r="P30">
+        <v>5397.5607867601475</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="12"/>
+        <v>62330.399107024001</v>
+      </c>
+      <c r="R30">
+        <v>2562.69</v>
+      </c>
+      <c r="S30">
+        <v>2843.3</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="13"/>
+        <v>0.84859186310327495</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="14"/>
+        <v>100.316666658</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="15"/>
+        <v>0.40549205910467551</v>
+      </c>
+      <c r="W30">
         <f t="shared" si="9"/>
-        <v>5002.0684156600228</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="10"/>
-        <v>62352.510563366843</v>
-      </c>
-      <c r="R30">
-        <v>2441.09</v>
-      </c>
-      <c r="S30">
-        <v>2568.79</v>
-      </c>
-      <c r="T30">
-        <f t="shared" si="11"/>
-        <v>0.84859186310327495</v>
-      </c>
-      <c r="U30">
-        <f t="shared" si="12"/>
-        <v>100.316666658</v>
-      </c>
-      <c r="V30">
-        <f t="shared" si="13"/>
-        <v>0.40563590576843367</v>
-      </c>
-      <c r="W30">
-        <f t="shared" si="14"/>
-        <v>3.2541088308543749E-2</v>
+        <v>3.5113974383638814E-2</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
@@ -4756,7 +4782,7 @@
         <v>327.493424</v>
       </c>
       <c r="L31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>6376.7248559999998</v>
       </c>
       <c r="N31">
@@ -4764,38 +4790,38 @@
         <v>62534.308809092392</v>
       </c>
       <c r="O31">
+        <f t="shared" si="11"/>
+        <v>4258.3600000000006</v>
+      </c>
+      <c r="P31">
         <f t="shared" si="8"/>
-        <v>3956.25</v>
-      </c>
-      <c r="P31">
+        <v>4236.5602152481588</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="12"/>
+        <v>62103.974715420423</v>
+      </c>
+      <c r="R31">
+        <v>1971.27</v>
+      </c>
+      <c r="S31">
+        <v>2287.09</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="13"/>
+        <v>0.84872721430781117</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="14"/>
+        <v>80.767777770800009</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="15"/>
+        <v>0.62316419948477497</v>
+      </c>
+      <c r="W31">
         <f t="shared" si="9"/>
-        <v>3935.9968043038934</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="10"/>
-        <v>62134.504833362364</v>
-      </c>
-      <c r="R31">
-        <v>1900.98</v>
-      </c>
-      <c r="S31">
-        <v>2055.27</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="11"/>
-        <v>0.84872721430781117</v>
-      </c>
-      <c r="U31">
-        <f t="shared" si="12"/>
-        <v>80.767777770800009</v>
-      </c>
-      <c r="V31">
-        <f t="shared" si="13"/>
-        <v>0.62347054503825439</v>
-      </c>
-      <c r="W31">
-        <f t="shared" si="14"/>
-        <v>3.949461059405663E-2</v>
+        <v>4.2510526374548371E-2</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
@@ -4832,7 +4858,7 @@
         <v>340.19400000000002</v>
       </c>
       <c r="L32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>6364.0242799999996</v>
       </c>
       <c r="N32">
@@ -4840,38 +4866,38 @@
         <v>62409.758705461994</v>
       </c>
       <c r="O32">
+        <f t="shared" si="11"/>
+        <v>4502.96</v>
+      </c>
+      <c r="P32">
         <f t="shared" si="8"/>
-        <v>4042.8199999999997</v>
-      </c>
-      <c r="P32">
+        <v>4464.4365529718134</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="12"/>
+        <v>61822.004482942793</v>
+      </c>
+      <c r="R32">
+        <v>2101.08</v>
+      </c>
+      <c r="S32">
+        <v>2401.88</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="13"/>
+        <v>0.8480506234114632</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="14"/>
+        <v>70.993333327200006</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="15"/>
+        <v>0.80355140271382219</v>
+      </c>
+      <c r="W32">
         <f t="shared" si="9"/>
-        <v>4008.2331144592677</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="10"/>
-        <v>61882.064805030925</v>
-      </c>
-      <c r="R32">
-        <v>1928.66</v>
-      </c>
-      <c r="S32">
-        <v>2114.16</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="11"/>
-        <v>0.8480506234114632</v>
-      </c>
-      <c r="U32">
-        <f t="shared" si="12"/>
-        <v>70.993333327200006</v>
-      </c>
-      <c r="V32">
-        <f t="shared" si="13"/>
-        <v>0.80433205608255398</v>
-      </c>
-      <c r="W32">
-        <f t="shared" si="14"/>
-        <v>5.2098300086927597E-2</v>
+        <v>5.8027951123085258E-2</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
@@ -4908,7 +4934,7 @@
         <v>351.08020799999997</v>
       </c>
       <c r="L33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>6353.1380719999997</v>
       </c>
       <c r="N33">
@@ -4916,38 +4942,38 @@
         <v>62303.001473778793</v>
       </c>
       <c r="O33">
+        <f t="shared" si="11"/>
+        <v>3893.4300000000003</v>
+      </c>
+      <c r="P33">
         <f t="shared" si="8"/>
-        <v>4695.37</v>
-      </c>
-      <c r="P33">
+        <v>3824.4666506045987</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="12"/>
+        <v>61573.445442131298</v>
+      </c>
+      <c r="R33">
+        <v>1849.74</v>
+      </c>
+      <c r="S33">
+        <v>2043.69</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="13"/>
+        <v>0.84967513524967364</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="14"/>
+        <v>60.704444439200003</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="15"/>
+        <v>1.0925141330046546</v>
+      </c>
+      <c r="W33">
         <f t="shared" si="9"/>
-        <v>4612.2020884539634</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="10"/>
-        <v>61423.176870712421</v>
-      </c>
-      <c r="R33">
-        <v>2248.44</v>
-      </c>
-      <c r="S33">
-        <v>2446.9299999999998</v>
-      </c>
-      <c r="T33">
-        <f t="shared" si="11"/>
-        <v>0.84967513524967364</v>
-      </c>
-      <c r="U33">
-        <f t="shared" si="12"/>
-        <v>60.704444439200003</v>
-      </c>
-      <c r="V33">
-        <f t="shared" si="13"/>
-        <v>1.0898478774972244</v>
-      </c>
-      <c r="W33">
-        <f t="shared" si="14"/>
-        <v>8.183553688976615E-2</v>
+        <v>6.7858536045662471E-2</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
@@ -5246,15 +5272,15 @@
         <v>-3.1</v>
       </c>
       <c r="N59">
-        <f>L59*0.453592</f>
+        <f t="shared" ref="N59:N64" si="16">L59*0.453592</f>
         <v>404.60406399999999</v>
       </c>
       <c r="O59">
-        <f>$H$20-N59</f>
+        <f t="shared" ref="O59:O64" si="17">$H$20-N59</f>
         <v>6299.6142159999999</v>
       </c>
       <c r="P59">
-        <f>O59*9.80665</f>
+        <f t="shared" ref="P59:P64" si="18">O59*9.80665</f>
         <v>61778.111751336393</v>
       </c>
       <c r="Q59">
@@ -5266,23 +5292,23 @@
         <v>-2.2569999096635051E-2</v>
       </c>
       <c r="S59">
-        <f>-G59</f>
+        <f t="shared" ref="S59:S64" si="19">-G59</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="T59">
-        <f>1.225*(((288.15-0.0065*(D59*0.3048))/288.15)^(-9.80665/(-0.0065*287.05)-1))</f>
+        <f t="shared" ref="T59:T64" si="20">1.225*(((288.15-0.0065*(D59*0.3048))/288.15)^(-9.80665/(-0.0065*287.05)-1))</f>
         <v>0.85130202671685773</v>
       </c>
       <c r="U59">
-        <f>E59*0.5144444444</f>
+        <f t="shared" ref="U59:U64" si="21">E59*0.5144444444</f>
         <v>70.993333327200006</v>
       </c>
       <c r="V59">
-        <f>-I59</f>
+        <f t="shared" ref="V59:V64" si="22">-I59</f>
         <v>32</v>
       </c>
       <c r="W59">
-        <f>1/2*T59*U59^2</f>
+        <f t="shared" ref="W59:W64" si="23">1/2*T59*U59^2</f>
         <v>2145.3038272610047</v>
       </c>
     </row>
@@ -5325,15 +5351,15 @@
         <v>-2</v>
       </c>
       <c r="N60">
-        <f>L60*0.453592</f>
+        <f t="shared" si="16"/>
         <v>395.985816</v>
       </c>
       <c r="O60">
-        <f>$H$20-N60</f>
+        <f t="shared" si="17"/>
         <v>6308.2324639999997</v>
       </c>
       <c r="P60">
-        <f>O60*9.80665</f>
+        <f t="shared" si="18"/>
         <v>61862.627893085591</v>
       </c>
       <c r="Q60">
@@ -5341,23 +5367,23 @@
         <v>-0.47058823529411786</v>
       </c>
       <c r="S60">
-        <f>-G60</f>
+        <f t="shared" si="19"/>
         <v>0.5</v>
       </c>
       <c r="T60">
-        <f>1.225*(((288.15-0.0065*(D60*0.3048))/288.15)^(-9.80665/(-0.0065*287.05)-1))</f>
+        <f t="shared" si="20"/>
         <v>0.85565205606755046</v>
       </c>
       <c r="U60">
-        <f>E60*0.5144444444</f>
+        <f t="shared" si="21"/>
         <v>76.652222215600005</v>
       </c>
       <c r="V60">
-        <f>-I60</f>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="W60">
-        <f>1/2*T60*U60^2</f>
+        <f t="shared" si="23"/>
         <v>2513.7188537349361</v>
       </c>
     </row>
@@ -5400,15 +5426,15 @@
         <v>-1.5</v>
       </c>
       <c r="N61">
-        <f>L61*0.453592</f>
+        <f t="shared" si="16"/>
         <v>389.63552800000002</v>
       </c>
       <c r="O61">
-        <f>$H$20-N61</f>
+        <f t="shared" si="17"/>
         <v>6314.5827520000003</v>
       </c>
       <c r="P61">
-        <f>O61*9.80665</f>
+        <f t="shared" si="18"/>
         <v>61924.902944900801</v>
       </c>
       <c r="Q61">
@@ -5417,23 +5443,23 @@
       </c>
       <c r="R61" s="13"/>
       <c r="S61">
-        <f>-G61</f>
+        <f t="shared" si="19"/>
         <v>0.1</v>
       </c>
       <c r="T61">
-        <f>1.225*(((288.15-0.0065*(D61*0.3048))/288.15)^(-9.80665/(-0.0065*287.05)-1))</f>
+        <f t="shared" si="20"/>
         <v>0.85701492129569312</v>
       </c>
       <c r="U61">
-        <f>E61*0.5144444444</f>
+        <f t="shared" si="21"/>
         <v>81.282222215200008</v>
       </c>
       <c r="V61">
-        <f>-I61</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="W61">
-        <f>1/2*T61*U61^2</f>
+        <f t="shared" si="23"/>
         <v>2831.0629402769027</v>
       </c>
     </row>
@@ -5476,15 +5502,15 @@
         <v>0.2</v>
       </c>
       <c r="N62">
-        <f>L62*0.453592</f>
+        <f t="shared" si="16"/>
         <v>414.58308799999998</v>
       </c>
       <c r="O62">
-        <f>$H$20-N62</f>
+        <f t="shared" si="17"/>
         <v>6289.6351919999997</v>
       </c>
       <c r="P62">
-        <f>O62*9.80665</f>
+        <f t="shared" si="18"/>
         <v>61680.250955626791</v>
       </c>
       <c r="Q62">
@@ -5492,23 +5518,23 @@
         <v>-0.50000000000000033</v>
       </c>
       <c r="S62">
-        <f>-G62</f>
+        <f t="shared" si="19"/>
         <v>-0.3</v>
       </c>
       <c r="T62">
-        <f>1.225*(((288.15-0.0065*(D62*0.3048))/288.15)^(-9.80665/(-0.0065*287.05)-1))</f>
+        <f t="shared" si="20"/>
         <v>0.87266926229232178</v>
       </c>
       <c r="U62">
-        <f>E62*0.5144444444</f>
+        <f t="shared" si="21"/>
         <v>86.941111103600008</v>
       </c>
       <c r="V62">
-        <f>-I62</f>
+        <f t="shared" si="22"/>
         <v>-26</v>
       </c>
       <c r="W62">
-        <f>1/2*T62*U62^2</f>
+        <f t="shared" si="23"/>
         <v>3298.1473602203464</v>
       </c>
     </row>
@@ -5551,15 +5577,15 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <f>L63*0.453592</f>
+        <f t="shared" si="16"/>
         <v>423.20133599999997</v>
       </c>
       <c r="O63">
-        <f>$H$20-N63</f>
+        <f t="shared" si="17"/>
         <v>6281.016944</v>
       </c>
       <c r="P63">
-        <f>O63*9.80665</f>
+        <f t="shared" si="18"/>
         <v>61595.7348138776</v>
       </c>
       <c r="Q63">
@@ -5567,23 +5593,23 @@
         <v>-0.53846153846153855</v>
       </c>
       <c r="S63">
-        <f>-G63</f>
+        <f t="shared" si="19"/>
         <v>-0.6</v>
       </c>
       <c r="T63">
-        <f>1.225*(((288.15-0.0065*(D63*0.3048))/288.15)^(-9.80665/(-0.0065*287.05)-1))</f>
+        <f t="shared" si="20"/>
         <v>0.88658041092326045</v>
       </c>
       <c r="U63">
-        <f>E63*0.5144444444</f>
+        <f t="shared" si="21"/>
         <v>92.599999992000008</v>
       </c>
       <c r="V63">
-        <f>-I63</f>
+        <f t="shared" si="22"/>
         <v>-49</v>
       </c>
       <c r="W63">
-        <f>1/2*T63*U63^2</f>
+        <f t="shared" si="23"/>
         <v>3801.1071215273901</v>
       </c>
     </row>
@@ -5626,35 +5652,35 @@
         <v>-1.5</v>
       </c>
       <c r="N64">
-        <f>L64*0.453592</f>
+        <f t="shared" si="16"/>
         <v>430.00521600000002</v>
       </c>
       <c r="O64">
-        <f>$H$20-N64</f>
+        <f t="shared" si="17"/>
         <v>6274.2130639999996</v>
       </c>
       <c r="P64">
-        <f>O64*9.80665</f>
+        <f t="shared" si="18"/>
         <v>61529.011544075591</v>
       </c>
       <c r="S64">
-        <f>-G64</f>
+        <f t="shared" si="19"/>
         <v>0.1</v>
       </c>
       <c r="T64">
-        <f>1.225*(((288.15-0.0065*(D64*0.3048))/288.15)^(-9.80665/(-0.0065*287.05)-1))</f>
+        <f t="shared" si="20"/>
         <v>0.88183172728763926</v>
       </c>
       <c r="U64">
-        <f>E64*0.5144444444</f>
+        <f t="shared" si="21"/>
         <v>82.311111104000005</v>
       </c>
       <c r="V64">
-        <f>-I64</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="W64">
-        <f>1/2*T64*U64^2</f>
+        <f t="shared" si="23"/>
         <v>2987.2574501019008</v>
       </c>
     </row>
@@ -5884,11 +5910,11 @@
         <v>-1.5</v>
       </c>
       <c r="N75">
-        <f t="shared" ref="N75:N76" si="16">L75*0.453592</f>
+        <f t="shared" ref="N75:N76" si="24">L75*0.453592</f>
         <v>430.00521600000002</v>
       </c>
       <c r="O75">
-        <f t="shared" ref="O75:O76" si="17">$H$20-N75</f>
+        <f t="shared" ref="O75:O76" si="25">$H$20-N75</f>
         <v>6274.2130639999996</v>
       </c>
       <c r="P75">
@@ -5951,11 +5977,11 @@
         <v>-2.5</v>
       </c>
       <c r="N76">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>437.71627999999998</v>
       </c>
       <c r="O76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>6266.5020000000004</v>
       </c>
       <c r="P76">
@@ -6293,7 +6319,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A59:W63">
+  <sortState ref="A59:W63">
     <sortCondition ref="U59:U63"/>
   </sortState>
   <conditionalFormatting sqref="B34:J34">
@@ -6405,4 +6431,532 @@
   <pageSetup paperSize="9" scale="24" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC5488-0BFE-4566-95C3-43278896809C}">
+  <dimension ref="A1:W12"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C2" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10451.5622982761</v>
+      </c>
+      <c r="D4" s="3">
+        <v>182.462934746418</v>
+      </c>
+      <c r="E4" s="3">
+        <v>7.0942990328948197</v>
+      </c>
+      <c r="F4" s="3">
+        <v>712</v>
+      </c>
+      <c r="G4" s="3">
+        <v>756</v>
+      </c>
+      <c r="H4" s="3">
+        <v>645</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="J4">
+        <v>448.50357949238798</v>
+      </c>
+      <c r="K4">
+        <f>$E$12-J4</f>
+        <v>6255.7147205076126</v>
+      </c>
+      <c r="M4">
+        <f>K4*9.80665</f>
+        <v>61347.604763865973</v>
+      </c>
+      <c r="N4">
+        <f>Q4+R4</f>
+        <v>7499.77</v>
+      </c>
+      <c r="O4">
+        <f>N4*COS(RADIANS(E4))</f>
+        <v>7442.3534963274205</v>
+      </c>
+      <c r="P4">
+        <f>M4-N4*SIN(RADIANS(E4))</f>
+        <v>60421.362631050244</v>
+      </c>
+      <c r="Q4">
+        <v>3697.8</v>
+      </c>
+      <c r="R4">
+        <v>3801.97</v>
+      </c>
+      <c r="S4">
+        <f>1.225*(((288.15-0.0065*(C4*0.3048))/288.15)^(-9.80665/(-0.0065*287.05)-1))</f>
+        <v>0.89186695733452492</v>
+      </c>
+      <c r="T4">
+        <f>D4*0.5144444444</f>
+        <v>93.867043089214462</v>
+      </c>
+      <c r="U4">
+        <f>P4/(0.5*S4*T4^2*$D$11)</f>
+        <v>0.42716106577927948</v>
+      </c>
+      <c r="V4">
+        <f>O4/(0.5*S4*T4^2*$D$11)</f>
+        <v>5.2615226022123048E-2</v>
+      </c>
+      <c r="W4">
+        <f>V4-(U4^2)/(PI()*7.11111*0.8)</f>
+        <v>4.2405688573615034E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5">
+        <v>10647.934607355</v>
+      </c>
+      <c r="D5">
+        <v>151.86092119588099</v>
+      </c>
+      <c r="E5">
+        <v>8.9587318239251399</v>
+      </c>
+      <c r="J5">
+        <v>454.011702963152</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K9" si="0">$E$12-J5</f>
+        <v>6250.2065970368485</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M9" si="1">K5*9.80665</f>
+        <v>61293.588524831408</v>
+      </c>
+      <c r="N5">
+        <f>Q5+R5</f>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O9" si="2">N5*COS(RADIANS(E5))</f>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P9" si="3">M5-N5*SIN(RADIANS(E5))</f>
+        <v>61293.588524831408</v>
+      </c>
+      <c r="S5">
+        <f t="shared" ref="S5:S9" si="4">1.225*(((288.15-0.0065*(C5*0.3048))/288.15)^(-9.80665/(-0.0065*287.05)-1))</f>
+        <v>0.88635833583980284</v>
+      </c>
+      <c r="T5">
+        <f t="shared" ref="T5:T9" si="5">D5*0.5144444444</f>
+        <v>78.124007230687184</v>
+      </c>
+      <c r="U5">
+        <f t="shared" ref="U5:U9" si="6">P5/(0.5*S5*T5^2*$D$11)</f>
+        <v>0.62945427422597178</v>
+      </c>
+      <c r="V5">
+        <f t="shared" ref="V5:V9" si="7">O5/(0.5*S5*T5^2*$D$11)</f>
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f t="shared" ref="W5:W9" si="8">V5-(U5^2)/(PI()*7.11111*0.8)</f>
+        <v>-2.2169255949309914E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6">
+        <v>10120.628741644699</v>
+      </c>
+      <c r="D6">
+        <v>191.672982280665</v>
+      </c>
+      <c r="E6">
+        <v>5.2577614540925897</v>
+      </c>
+      <c r="J6">
+        <v>463.00838557364199</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>6241.2099144263584</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>61205.361207309244</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N5:N9" si="9">Q6+R6</f>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="3"/>
+        <v>61205.361207309244</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="4"/>
+        <v>0.90120950018440349</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="5"/>
+        <v>98.605100875867748</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="6"/>
+        <v>0.38805424221215346</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="8"/>
+        <v>-8.4257314835718376E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7">
+        <v>9990.0746787326898</v>
+      </c>
+      <c r="D7">
+        <v>195.010528801552</v>
+      </c>
+      <c r="E7">
+        <v>4.6338421086146004</v>
+      </c>
+      <c r="J7">
+        <v>481.655082840896</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>6222.5632171591042</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>61022.499573553323</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>61022.499573553323</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="4"/>
+        <v>0.90491567624137825</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="5"/>
+        <v>100.32208314146462</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="6"/>
+        <v>0.37223421764716219</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="8"/>
+        <v>-7.7527419722753805E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8">
+        <v>10015.6397841905</v>
+      </c>
+      <c r="D8">
+        <v>193.01644679767799</v>
+      </c>
+      <c r="E8">
+        <v>5.1586097840693901</v>
+      </c>
+      <c r="J8">
+        <v>487.499543495978</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>6216.7187565040222</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>60965.184993470168</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="3"/>
+        <v>60965.184993470168</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="4"/>
+        <v>0.90418901618067593</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="5"/>
+        <v>99.296238732893613</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="6"/>
+        <v>0.37991336132465564</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="8"/>
+        <v>-8.0759175984166497E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9">
+        <v>12276.3149767134</v>
+      </c>
+      <c r="D9">
+        <v>198.011541386994</v>
+      </c>
+      <c r="E9">
+        <v>5.2720601838328296</v>
+      </c>
+      <c r="J9">
+        <v>524.75043572306504</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>6179.4678642769359</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>60599.878531211412</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="3"/>
+        <v>60599.878531211412</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="4"/>
+        <v>0.84167544546475292</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="5"/>
+        <v>101.86593739361975</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="6"/>
+        <v>0.38547535671077471</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="8"/>
+        <v>-8.3141141250022664E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12">
+        <v>6704.2183000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C4:I4">
+    <cfRule type="expression" priority="1">
+      <formula>LEN(TRIM(C4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Flight_datasheet_cmdelta_cmalpha_clcd.xlsx
+++ b/Flight_datasheet_cmdelta_cmalpha_clcd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emili\Documents\TU DELFT\Year 3\Q3\SVV\FLight dynamics report\SVV_FD_B23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A52CA20-2E95-41D3-9CAD-3E828B9034E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83B4895-CC2F-4B64-A0D3-EDB73C78917B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5064" yWindow="348" windowWidth="11460" windowHeight="10968" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5064" yWindow="348" windowWidth="11460" windowHeight="10968" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1234,6 +1234,14 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$F$28:$F$33</c:f>
@@ -3751,8 +3759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W88"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S68" sqref="S68"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A42" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q68" sqref="Q68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4638,7 +4646,7 @@
         <v>62738.926836485196</v>
       </c>
       <c r="O29">
-        <f t="shared" ref="O28:O33" si="11">R29+S29</f>
+        <f t="shared" ref="O29:O33" si="11">R29+S29</f>
         <v>7047.01</v>
       </c>
       <c r="P29">
@@ -4646,7 +4654,7 @@
         <v>7041.332894315452</v>
       </c>
       <c r="Q29">
-        <f t="shared" ref="Q28:Q33" si="12">N29-O29*SIN(RADIANS(F29))</f>
+        <f t="shared" ref="Q29:Q33" si="12">N29-O29*SIN(RADIANS(F29))</f>
         <v>62456.117693190325</v>
       </c>
       <c r="R29">
@@ -4656,15 +4664,15 @@
         <v>3978.92</v>
       </c>
       <c r="T29">
-        <f t="shared" ref="T28:T33" si="13">1.225*(((288.15-0.0065*(D29*0.3048))/288.15)^(-9.80665/(-0.0065*287.05)-1))</f>
+        <f t="shared" ref="T29:T33" si="13">1.225*(((288.15-0.0065*(D29*0.3048))/288.15)^(-9.80665/(-0.0065*287.05)-1))</f>
         <v>0.84859186310327495</v>
       </c>
       <c r="U29">
-        <f t="shared" ref="U28:U33" si="14">E29*0.5144444444</f>
+        <f t="shared" ref="U29:U33" si="14">E29*0.5144444444</f>
         <v>111.6344444348</v>
       </c>
       <c r="V29">
-        <f t="shared" ref="V28:V33" si="15">Q29/(0.5*T29*U29^2*$B$20)</f>
+        <f t="shared" ref="V29:V33" si="15">Q29/(0.5*T29*U29^2*$B$20)</f>
         <v>0.32810072174714611</v>
       </c>
       <c r="W29">
@@ -6437,8 +6445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC5488-0BFE-4566-95C3-43278896809C}">
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6447,6 +6455,7 @@
     <col min="9" max="9" width="12.88671875" customWidth="1"/>
     <col min="11" max="11" width="13.44140625" customWidth="1"/>
     <col min="13" max="13" width="14.33203125" customWidth="1"/>
+    <col min="23" max="23" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
@@ -6613,21 +6622,21 @@
       </c>
       <c r="N4">
         <f>Q4+R4</f>
-        <v>7499.77</v>
+        <v>3821.05</v>
       </c>
       <c r="O4">
         <f>N4*COS(RADIANS(E4))</f>
-        <v>7442.3534963274205</v>
+        <v>3791.7969253912975</v>
       </c>
       <c r="P4">
         <f>M4-N4*SIN(RADIANS(E4))</f>
-        <v>60421.362631050244</v>
+        <v>60875.694625075645</v>
       </c>
       <c r="Q4">
-        <v>3697.8</v>
+        <v>1774.73</v>
       </c>
       <c r="R4">
-        <v>3801.97</v>
+        <v>2046.32</v>
       </c>
       <c r="S4">
         <f>1.225*(((288.15-0.0065*(C4*0.3048))/288.15)^(-9.80665/(-0.0065*287.05)-1))</f>
@@ -6639,15 +6648,15 @@
       </c>
       <c r="U4">
         <f>P4/(0.5*S4*T4^2*$D$11)</f>
-        <v>0.42716106577927948</v>
+        <v>0.43037305786841162</v>
       </c>
       <c r="V4">
         <f>O4/(0.5*S4*T4^2*$D$11)</f>
-        <v>5.2615226022123048E-2</v>
+        <v>2.6806876663128774E-2</v>
       </c>
       <c r="W4">
         <f>V4-(U4^2)/(PI()*7.11111*0.8)</f>
-        <v>4.2405688573615034E-2</v>
+        <v>1.6443222897783629E-2</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -6676,15 +6685,21 @@
       </c>
       <c r="N5">
         <f>Q5+R5</f>
-        <v>0</v>
+        <v>4067.21</v>
       </c>
       <c r="O5">
         <f t="shared" ref="O5:O9" si="2">N5*COS(RADIANS(E5))</f>
-        <v>0</v>
+        <v>4017.5931239692559</v>
       </c>
       <c r="P5">
         <f t="shared" ref="P5:P9" si="3">M5-N5*SIN(RADIANS(E5))</f>
-        <v>61293.588524831408</v>
+        <v>60660.230273653644</v>
+      </c>
+      <c r="Q5">
+        <v>1892.53</v>
+      </c>
+      <c r="R5">
+        <v>2174.6799999999998</v>
       </c>
       <c r="S5">
         <f t="shared" ref="S5:S9" si="4">1.225*(((288.15-0.0065*(C5*0.3048))/288.15)^(-9.80665/(-0.0065*287.05)-1))</f>
@@ -6696,15 +6711,15 @@
       </c>
       <c r="U5">
         <f t="shared" ref="U5:U9" si="6">P5/(0.5*S5*T5^2*$D$11)</f>
-        <v>0.62945427422597178</v>
+        <v>0.62295000407447587</v>
       </c>
       <c r="V5">
         <f t="shared" ref="V5:V9" si="7">O5/(0.5*S5*T5^2*$D$11)</f>
-        <v>0</v>
+        <v>4.1258657305711703E-2</v>
       </c>
       <c r="W5">
         <f t="shared" ref="W5:W9" si="8">V5-(U5^2)/(PI()*7.11111*0.8)</f>
-        <v>-2.2169255949309914E-2</v>
+        <v>1.9545192473857231E-2</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -6732,16 +6747,22 @@
         <v>61205.361207309244</v>
       </c>
       <c r="N6">
-        <f t="shared" ref="N5:N9" si="9">Q6+R6</f>
-        <v>0</v>
+        <f t="shared" ref="N6:N9" si="9">Q6+R6</f>
+        <v>3752.79</v>
       </c>
       <c r="O6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3737.00022374335</v>
       </c>
       <c r="P6">
         <f t="shared" si="3"/>
-        <v>61205.361207309244</v>
+        <v>60861.468619657011</v>
+      </c>
+      <c r="Q6">
+        <v>1740.55</v>
+      </c>
+      <c r="R6">
+        <v>2012.24</v>
       </c>
       <c r="S6">
         <f t="shared" si="4"/>
@@ -6753,15 +6774,15 @@
       </c>
       <c r="U6">
         <f t="shared" si="6"/>
-        <v>0.38805424221215346</v>
+        <v>0.38587389436563463</v>
       </c>
       <c r="V6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.3693329495426511E-2</v>
       </c>
       <c r="W6">
         <f t="shared" si="8"/>
-        <v>-8.4257314835718376E-3</v>
+        <v>1.5362014787443057E-2</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -6790,15 +6811,21 @@
       </c>
       <c r="N7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3746.41</v>
       </c>
       <c r="O7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3734.164239221026</v>
       </c>
       <c r="P7">
         <f t="shared" si="3"/>
-        <v>61022.499573553323</v>
+        <v>60719.835861452164</v>
+      </c>
+      <c r="Q7">
+        <v>1740.41</v>
+      </c>
+      <c r="R7">
+        <v>2006</v>
       </c>
       <c r="S7">
         <f t="shared" si="4"/>
@@ -6810,15 +6837,15 @@
       </c>
       <c r="U7">
         <f t="shared" si="6"/>
-        <v>0.37223421764716219</v>
+        <v>0.37038798403052109</v>
       </c>
       <c r="V7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.2778216458947832E-2</v>
       </c>
       <c r="W7">
         <f t="shared" si="8"/>
-        <v>-7.7527419722753805E-3</v>
+        <v>1.510218896338434E-2</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -6847,15 +6874,21 @@
       </c>
       <c r="N8">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3775.1899999999996</v>
       </c>
       <c r="O8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3759.8990131922415</v>
       </c>
       <c r="P8">
         <f t="shared" si="3"/>
-        <v>60965.184993470168</v>
+        <v>60625.745828528925</v>
+      </c>
+      <c r="Q8">
+        <v>1757.11</v>
+      </c>
+      <c r="R8">
+        <v>2018.08</v>
       </c>
       <c r="S8">
         <f t="shared" si="4"/>
@@ -6867,15 +6900,15 @@
       </c>
       <c r="U8">
         <f t="shared" si="6"/>
-        <v>0.37991336132465564</v>
+        <v>0.37779809711063128</v>
       </c>
       <c r="V8">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.343035410285586E-2</v>
       </c>
       <c r="W8">
         <f t="shared" si="8"/>
-        <v>-8.0759175984166497E-3</v>
+        <v>1.5444115600199378E-2</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -6904,15 +6937,21 @@
       </c>
       <c r="N9">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3701.85</v>
       </c>
       <c r="O9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3686.1897809458433</v>
       </c>
       <c r="P9">
         <f t="shared" si="3"/>
-        <v>60599.878531211412</v>
+        <v>60259.733971721718</v>
+      </c>
+      <c r="Q9">
+        <v>1732.3</v>
+      </c>
+      <c r="R9">
+        <v>1969.55</v>
       </c>
       <c r="S9">
         <f t="shared" si="4"/>
@@ -6924,15 +6963,15 @@
       </c>
       <c r="U9">
         <f t="shared" si="6"/>
-        <v>0.38547535671077471</v>
+        <v>0.38331169980946611</v>
       </c>
       <c r="V9">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.3447824569184109E-2</v>
       </c>
       <c r="W9">
         <f t="shared" si="8"/>
-        <v>-8.3141141250022664E-3</v>
+        <v>1.5226782048637939E-2</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">

--- a/Flight_datasheet_cmdelta_cmalpha_clcd.xlsx
+++ b/Flight_datasheet_cmdelta_cmalpha_clcd.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emili\Documents\TU DELFT\Year 3\Q3\SVV\FLight dynamics report\SVV_FD_B23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83B4895-CC2F-4B64-A0D3-EDB73C78917B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502F9799-C511-402A-A75C-943F3D31A421}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5064" yWindow="348" windowWidth="11460" windowHeight="10968" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5064" yWindow="348" windowWidth="11460" windowHeight="10968" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AE$92</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="150">
   <si>
     <t>Post-Flight Data Sheet AE3202</t>
   </si>
@@ -460,6 +461,30 @@
   </si>
   <si>
     <t>C_D_0</t>
+  </si>
+  <si>
+    <t>A/c configuration:</t>
+  </si>
+  <si>
+    <t>Mach number range:</t>
+  </si>
+  <si>
+    <t>Reynolds number range:</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>Single engine piston prop. Cessna 182S Skylane: Pax: 4, vCR : 140 kt, R : 820 NM, MTOW: 1.4 t.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double engine </t>
+  </si>
+  <si>
+    <t>Pax: 7</t>
   </si>
 </sst>
 </file>
@@ -1145,6 +1170,514 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>C</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="-25000"/>
+              <a:t>L</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>  - C</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="-25000"/>
+              <a:t>D</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Cl</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="76000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="76000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="76000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="76000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="76000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$W$28:$W$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.2762078241617434E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6990233943707207E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5113974383638814E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2510526374548371E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8027951123085258E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7858536045662471E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$V$28:$V$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.26911969038509898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32810072174714611</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40549205910467551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62316419948477497</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80355140271382219</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0925141330046546</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B959-480A-B840-7275815AFDFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="524958712"/>
+        <c:axId val="524961008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="524958712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>C</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="-25000"/>
+                  <a:t>D</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> [-]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="524961008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="524961008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>C</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="-25000"/>
+                  <a:t>L</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t> [-]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="524958712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1239,6 +1772,12 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.7037106135658981E-2"/>
+                  <c:y val="-1.5052362798650914E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -1804,28 +2343,6 @@
         </a:ln>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
     <c:showDLblsOverMax val="1"/>
@@ -3195,6 +3712,2392 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>C</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="-25000"/>
+              <a:t>L </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> vs C</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="-25000"/>
+              <a:t>D</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Cl</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="76000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$W$28:$W$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.2762078241617434E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6990233943707207E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5113974383638814E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2510526374548371E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8027951123085258E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7858536045662471E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$V$28:$V$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.26911969038509898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32810072174714611</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40549205910467551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62316419948477497</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80355140271382219</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0925141330046546</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-34E4-47A5-A779-79E3E27D1B94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="524958712"/>
+        <c:axId val="524961008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="524958712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="524961008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="524961008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="524958712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CL - alpha</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$28:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$V$28:$V$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.26911969038509898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32810072174714611</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40549205910467551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62316419948477497</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80355140271382219</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0925141330046546</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2E73-423E-81C7-FA304474E159}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="74385396"/>
+        <c:axId val="7171523"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="74385396"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>alpha [deg]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="7171523"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="7171523"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CL [ - ]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74385396"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="21">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="21">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -3452,6 +6355,123 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D1E5FBF-123D-4FC7-A75D-0D11A25FAEBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{810FC055-E106-47C6-9520-ECE0EA6E69A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76513B83-F523-495B-84E8-265C34551FEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3759,8 +6779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W88"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A42" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q68" sqref="Q68"/>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4574,7 +7594,7 @@
         <v>7631.5300000000007</v>
       </c>
       <c r="P28">
-        <f t="shared" ref="P28:P33" si="8">O28*COS(RADIANS(F28))</f>
+        <f>O28*COS(RADIANS(F28))</f>
         <v>7628.554581233916</v>
       </c>
       <c r="Q28">
@@ -4600,7 +7620,7 @@
         <v>0.26911969038509898</v>
       </c>
       <c r="W28">
-        <f t="shared" ref="W28:W33" si="9">P28/(0.5*T28*U28^2*$B$20)</f>
+        <f>P28/(0.5*T28*U28^2*$B$20)</f>
         <v>3.2762078241617434E-2</v>
       </c>
     </row>
@@ -4638,7 +7658,7 @@
         <v>306.62819200000001</v>
       </c>
       <c r="L29">
-        <f t="shared" ref="L29:L33" si="10">$H$20-K29</f>
+        <f t="shared" ref="L29:L33" si="8">$H$20-K29</f>
         <v>6397.5900879999999</v>
       </c>
       <c r="N29">
@@ -4646,15 +7666,15 @@
         <v>62738.926836485196</v>
       </c>
       <c r="O29">
-        <f t="shared" ref="O29:O33" si="11">R29+S29</f>
+        <f t="shared" ref="O29:O33" si="9">R29+S29</f>
         <v>7047.01</v>
       </c>
       <c r="P29">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="P29:P33" si="10">O29*COS(RADIANS(F29))</f>
         <v>7041.332894315452</v>
       </c>
       <c r="Q29">
-        <f t="shared" ref="Q29:Q33" si="12">N29-O29*SIN(RADIANS(F29))</f>
+        <f t="shared" ref="Q29:Q33" si="11">N29-O29*SIN(RADIANS(F29))</f>
         <v>62456.117693190325</v>
       </c>
       <c r="R29">
@@ -4664,19 +7684,19 @@
         <v>3978.92</v>
       </c>
       <c r="T29">
-        <f t="shared" ref="T29:T33" si="13">1.225*(((288.15-0.0065*(D29*0.3048))/288.15)^(-9.80665/(-0.0065*287.05)-1))</f>
+        <f t="shared" ref="T29:T33" si="12">1.225*(((288.15-0.0065*(D29*0.3048))/288.15)^(-9.80665/(-0.0065*287.05)-1))</f>
         <v>0.84859186310327495</v>
       </c>
       <c r="U29">
-        <f t="shared" ref="U29:U33" si="14">E29*0.5144444444</f>
+        <f t="shared" ref="U29:U33" si="13">E29*0.5144444444</f>
         <v>111.6344444348</v>
       </c>
       <c r="V29">
-        <f t="shared" ref="V29:V33" si="15">Q29/(0.5*T29*U29^2*$B$20)</f>
+        <f t="shared" ref="V29:V33" si="14">Q29/(0.5*T29*U29^2*$B$20)</f>
         <v>0.32810072174714611</v>
       </c>
       <c r="W29">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="W29:W33" si="15">P29/(0.5*T29*U29^2*$B$20)</f>
         <v>3.6990233943707207E-2</v>
       </c>
     </row>
@@ -4714,7 +7734,7 @@
         <v>317.51440000000002</v>
       </c>
       <c r="L30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>6386.70388</v>
       </c>
       <c r="N30">
@@ -4722,15 +7742,15 @@
         <v>62632.169604801995</v>
       </c>
       <c r="O30">
+        <f t="shared" si="9"/>
+        <v>5405.99</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="10"/>
+        <v>5397.5607867601475</v>
+      </c>
+      <c r="Q30">
         <f t="shared" si="11"/>
-        <v>5405.99</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="8"/>
-        <v>5397.5607867601475</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="12"/>
         <v>62330.399107024001</v>
       </c>
       <c r="R30">
@@ -4740,19 +7760,19 @@
         <v>2843.3</v>
       </c>
       <c r="T30">
+        <f t="shared" si="12"/>
+        <v>0.84859186310327495</v>
+      </c>
+      <c r="U30">
         <f t="shared" si="13"/>
-        <v>0.84859186310327495</v>
-      </c>
-      <c r="U30">
+        <v>100.316666658</v>
+      </c>
+      <c r="V30">
         <f t="shared" si="14"/>
-        <v>100.316666658</v>
-      </c>
-      <c r="V30">
+        <v>0.40549205910467551</v>
+      </c>
+      <c r="W30">
         <f t="shared" si="15"/>
-        <v>0.40549205910467551</v>
-      </c>
-      <c r="W30">
-        <f t="shared" si="9"/>
         <v>3.5113974383638814E-2</v>
       </c>
     </row>
@@ -4790,7 +7810,7 @@
         <v>327.493424</v>
       </c>
       <c r="L31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>6376.7248559999998</v>
       </c>
       <c r="N31">
@@ -4798,15 +7818,15 @@
         <v>62534.308809092392</v>
       </c>
       <c r="O31">
+        <f t="shared" si="9"/>
+        <v>4258.3600000000006</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="10"/>
+        <v>4236.5602152481588</v>
+      </c>
+      <c r="Q31">
         <f t="shared" si="11"/>
-        <v>4258.3600000000006</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="8"/>
-        <v>4236.5602152481588</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="12"/>
         <v>62103.974715420423</v>
       </c>
       <c r="R31">
@@ -4816,19 +7836,19 @@
         <v>2287.09</v>
       </c>
       <c r="T31">
+        <f t="shared" si="12"/>
+        <v>0.84872721430781117</v>
+      </c>
+      <c r="U31">
         <f t="shared" si="13"/>
-        <v>0.84872721430781117</v>
-      </c>
-      <c r="U31">
+        <v>80.767777770800009</v>
+      </c>
+      <c r="V31">
         <f t="shared" si="14"/>
-        <v>80.767777770800009</v>
-      </c>
-      <c r="V31">
+        <v>0.62316419948477497</v>
+      </c>
+      <c r="W31">
         <f t="shared" si="15"/>
-        <v>0.62316419948477497</v>
-      </c>
-      <c r="W31">
-        <f t="shared" si="9"/>
         <v>4.2510526374548371E-2</v>
       </c>
     </row>
@@ -4866,7 +7886,7 @@
         <v>340.19400000000002</v>
       </c>
       <c r="L32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>6364.0242799999996</v>
       </c>
       <c r="N32">
@@ -4874,15 +7894,15 @@
         <v>62409.758705461994</v>
       </c>
       <c r="O32">
+        <f t="shared" si="9"/>
+        <v>4502.96</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="10"/>
+        <v>4464.4365529718134</v>
+      </c>
+      <c r="Q32">
         <f t="shared" si="11"/>
-        <v>4502.96</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="8"/>
-        <v>4464.4365529718134</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="12"/>
         <v>61822.004482942793</v>
       </c>
       <c r="R32">
@@ -4892,19 +7912,19 @@
         <v>2401.88</v>
       </c>
       <c r="T32">
+        <f t="shared" si="12"/>
+        <v>0.8480506234114632</v>
+      </c>
+      <c r="U32">
         <f t="shared" si="13"/>
-        <v>0.8480506234114632</v>
-      </c>
-      <c r="U32">
+        <v>70.993333327200006</v>
+      </c>
+      <c r="V32">
         <f t="shared" si="14"/>
-        <v>70.993333327200006</v>
-      </c>
-      <c r="V32">
+        <v>0.80355140271382219</v>
+      </c>
+      <c r="W32">
         <f t="shared" si="15"/>
-        <v>0.80355140271382219</v>
-      </c>
-      <c r="W32">
-        <f t="shared" si="9"/>
         <v>5.8027951123085258E-2</v>
       </c>
     </row>
@@ -4942,7 +7962,7 @@
         <v>351.08020799999997</v>
       </c>
       <c r="L33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>6353.1380719999997</v>
       </c>
       <c r="N33">
@@ -4950,15 +7970,15 @@
         <v>62303.001473778793</v>
       </c>
       <c r="O33">
+        <f t="shared" si="9"/>
+        <v>3893.4300000000003</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="10"/>
+        <v>3824.4666506045987</v>
+      </c>
+      <c r="Q33">
         <f t="shared" si="11"/>
-        <v>3893.4300000000003</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="8"/>
-        <v>3824.4666506045987</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="12"/>
         <v>61573.445442131298</v>
       </c>
       <c r="R33">
@@ -4968,19 +7988,19 @@
         <v>2043.69</v>
       </c>
       <c r="T33">
+        <f t="shared" si="12"/>
+        <v>0.84967513524967364</v>
+      </c>
+      <c r="U33">
         <f t="shared" si="13"/>
-        <v>0.84967513524967364</v>
-      </c>
-      <c r="U33">
+        <v>60.704444439200003</v>
+      </c>
+      <c r="V33">
         <f t="shared" si="14"/>
-        <v>60.704444439200003</v>
-      </c>
-      <c r="V33">
+        <v>1.0925141330046546</v>
+      </c>
+      <c r="W33">
         <f t="shared" si="15"/>
-        <v>1.0925141330046546</v>
-      </c>
-      <c r="W33">
-        <f t="shared" si="9"/>
         <v>6.7858536045662471E-2</v>
       </c>
     </row>
@@ -6445,8 +9465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC5488-0BFE-4566-95C3-43278896809C}">
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6998,4 +10018,58 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F255CE2E-7142-4E80-9D37-7B859A3DC084}">
+  <dimension ref="B22:F26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23">
+        <v>0.18622089749180501</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24">
+        <v>0.37881113885829498</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>